--- a/DadosExperimentoRugosoELiso/resultados_Des_Esticado.xlsx
+++ b/DadosExperimentoRugosoELiso/resultados_Des_Esticado.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28505"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\OneDrive\Documentos\GitHub\CorrectLightUnpol\DadosExperimentoRugosoELiso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF38BD03-95AA-4621-B59A-A8DC4CDA7C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +189,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +241,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +310,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -510,10 +541,10 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>1.888579615943674</v>
+        <v>1.8885796159436741</v>
       </c>
       <c r="F2">
-        <v>0.2971409305513951</v>
+        <v>0.29714093055139512</v>
       </c>
       <c r="G2">
         <v>2.896466666666667</v>
@@ -522,13 +553,13 @@
         <v>2.929755555555555</v>
       </c>
       <c r="I2">
-        <v>0.8809638943406842</v>
+        <v>0.88096389434068423</v>
       </c>
       <c r="J2">
         <v>0.1956909049171115</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -545,22 +576,22 @@
         <v>1.976704718955262</v>
       </c>
       <c r="F3">
-        <v>0.3133214814104144</v>
+        <v>0.31332148141041438</v>
       </c>
       <c r="G3">
         <v>2.929755555555555</v>
       </c>
       <c r="H3">
-        <v>2.963044444444444</v>
+        <v>2.9630444444444439</v>
       </c>
       <c r="I3">
-        <v>0.9845625788844348</v>
+        <v>0.98456257888443477</v>
       </c>
       <c r="J3">
-        <v>0.2310155093374492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.23101550933744919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -577,22 +608,22 @@
         <v>1.830380807142763</v>
       </c>
       <c r="F4">
-        <v>0.2874744328067845</v>
+        <v>0.28747443280678447</v>
       </c>
       <c r="G4">
-        <v>2.863177777777777</v>
+        <v>2.8631777777777772</v>
       </c>
       <c r="H4">
-        <v>2.896466666666665</v>
+        <v>2.8964666666666652</v>
       </c>
       <c r="I4">
-        <v>-12829.5206693711</v>
+        <v>-12829.520669371101</v>
       </c>
       <c r="J4">
-        <v>8862364.444915347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>8862364.4449153468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -606,25 +637,25 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>1.92631862115084</v>
+        <v>1.9263186211508401</v>
       </c>
       <c r="F5">
-        <v>0.3029588304759339</v>
+        <v>0.30295883047593392</v>
       </c>
       <c r="G5">
         <v>2.929755555555555</v>
       </c>
       <c r="H5">
-        <v>2.963044444444444</v>
+        <v>2.9630444444444439</v>
       </c>
       <c r="I5">
-        <v>0.9389359157857211</v>
+        <v>0.93893591578572111</v>
       </c>
       <c r="J5">
-        <v>0.212723927449959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.21272392744995899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -641,7 +672,7 @@
         <v>1.854770036628862</v>
       </c>
       <c r="F6">
-        <v>0.2900276510500182</v>
+        <v>0.29002765105001821</v>
       </c>
       <c r="G6">
         <v>2.896466666666667</v>
@@ -650,13 +681,13 @@
         <v>2.929755555555555</v>
       </c>
       <c r="I6">
-        <v>0.858009981830317</v>
+        <v>0.85800998183031696</v>
       </c>
       <c r="J6">
-        <v>0.1870226981924424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.18702269819244241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -670,25 +701,25 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>1.727734773462995</v>
+        <v>1.7277347734629951</v>
       </c>
       <c r="F7">
-        <v>0.3130038639564</v>
+        <v>0.31300386395640001</v>
       </c>
       <c r="G7">
-        <v>5.526622222222223</v>
+        <v>5.5266222222222234</v>
       </c>
       <c r="H7">
         <v>5.559911111111111</v>
       </c>
       <c r="I7">
-        <v>4.196643231171471</v>
+        <v>4.1966432311714712</v>
       </c>
       <c r="J7">
         <v>1.156538839918035</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -702,25 +733,25 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1.72310941991252</v>
+        <v>1.7231094199125201</v>
       </c>
       <c r="F8">
-        <v>0.3187768087883177</v>
+        <v>0.31877680878831771</v>
       </c>
       <c r="G8">
-        <v>5.160333333333334</v>
+        <v>5.1603333333333339</v>
       </c>
       <c r="H8">
-        <v>5.193622222222222</v>
+        <v>5.1936222222222224</v>
       </c>
       <c r="I8">
-        <v>2.748439089356355</v>
+        <v>2.7484390893563551</v>
       </c>
       <c r="J8">
-        <v>0.576280599517171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.57628059951717103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -734,25 +765,25 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1.788062576733422</v>
+        <v>1.7880625767334219</v>
       </c>
       <c r="F9">
-        <v>0.33947613014816</v>
+        <v>0.33947613014816003</v>
       </c>
       <c r="G9">
-        <v>5.093755555555557</v>
+        <v>5.0937555555555569</v>
       </c>
       <c r="H9">
-        <v>5.127044444444445</v>
+        <v>5.1270444444444454</v>
       </c>
       <c r="I9">
-        <v>2.538381240210932</v>
+        <v>2.5383812402109318</v>
       </c>
       <c r="J9">
         <v>0.5024882363334181</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -769,22 +800,22 @@
         <v>1.716606716203859</v>
       </c>
       <c r="F10">
-        <v>0.3118578959733389</v>
+        <v>0.31185789597333891</v>
       </c>
       <c r="G10">
-        <v>5.226911111111113</v>
+        <v>5.2269111111111126</v>
       </c>
       <c r="H10">
-        <v>5.260200000000001</v>
+        <v>5.2602000000000011</v>
       </c>
       <c r="I10">
-        <v>2.983025018043006</v>
+        <v>2.9830250180430058</v>
       </c>
       <c r="J10">
-        <v>0.6601610375238732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.66016103752387323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -798,25 +829,25 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1.703270201141612</v>
+        <v>1.7032702011416121</v>
       </c>
       <c r="F11">
-        <v>0.3044126337034888</v>
+        <v>0.30441263370348881</v>
       </c>
       <c r="G11">
-        <v>5.526622222222223</v>
+        <v>5.5266222222222234</v>
       </c>
       <c r="H11">
         <v>5.559911111111111</v>
       </c>
       <c r="I11">
-        <v>4.118303953156845</v>
+        <v>4.1183039531568451</v>
       </c>
       <c r="J11">
-        <v>1.126425352702978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>1.1264253527029779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -830,10 +861,10 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0.4309911999335471</v>
+        <v>0.43099119993354712</v>
       </c>
       <c r="F12">
-        <v>0.02923243669272417</v>
+        <v>2.923243669272417E-2</v>
       </c>
       <c r="G12">
         <v>1.298377777777777</v>
@@ -842,13 +873,13 @@
         <v>1.331666666666665</v>
       </c>
       <c r="I12">
-        <v>0.3289811082310924</v>
+        <v>0.32898110823109239</v>
       </c>
       <c r="J12">
-        <v>0.04187975081885943</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>4.1879750818859432E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -862,10 +893,10 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>0.4297154204859273</v>
+        <v>0.42971542048592731</v>
       </c>
       <c r="F13">
-        <v>0.02937872767351224</v>
+        <v>2.9378727673512239E-2</v>
       </c>
       <c r="G13">
         <v>1.298377777777777</v>
@@ -874,13 +905,13 @@
         <v>1.331666666666665</v>
       </c>
       <c r="I13">
-        <v>0.326818492487062</v>
+        <v>0.32681849248706202</v>
       </c>
       <c r="J13">
-        <v>0.04111079139531058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4.1110791395310577E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -897,7 +928,7 @@
         <v>0.4311457961392674</v>
       </c>
       <c r="F14">
-        <v>0.02919818646510663</v>
+        <v>2.9198186465106631E-2</v>
       </c>
       <c r="G14">
         <v>1.298377777777777</v>
@@ -906,13 +937,13 @@
         <v>1.331666666666665</v>
       </c>
       <c r="I14">
-        <v>0.3289693972193055</v>
+        <v>0.32896939721930551</v>
       </c>
       <c r="J14">
-        <v>0.0419558220253918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>4.1955822025391797E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -929,7 +960,7 @@
         <v>0.4306042296427125</v>
       </c>
       <c r="F15">
-        <v>0.0291730459176822</v>
+        <v>2.9173045917682199E-2</v>
       </c>
       <c r="G15">
         <v>1.298377777777777</v>
@@ -938,13 +969,13 @@
         <v>1.331666666666665</v>
       </c>
       <c r="I15">
-        <v>0.3295357552557274</v>
+        <v>0.32953575525572742</v>
       </c>
       <c r="J15">
-        <v>0.04205663148609028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>4.2056631486090283E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -958,10 +989,10 @@
         <v>28</v>
       </c>
       <c r="E16">
-        <v>0.42918671680867</v>
+        <v>0.42918671680866999</v>
       </c>
       <c r="F16">
-        <v>0.02917186355331815</v>
+        <v>2.9171863553318151E-2</v>
       </c>
       <c r="G16">
         <v>1.298377777777777</v>
@@ -970,10 +1001,10 @@
         <v>1.331666666666665</v>
       </c>
       <c r="I16">
-        <v>0.3277452805888869</v>
+        <v>0.32774528058888691</v>
       </c>
       <c r="J16">
-        <v>0.04151381746834099</v>
+        <v>4.1513817468340992E-2</v>
       </c>
     </row>
   </sheetData>
